--- a/medicine/Enfance/Květa_Pacovská/Květa_Pacovská.xlsx
+++ b/medicine/Enfance/Květa_Pacovská/Květa_Pacovská.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kv%C4%9Bta_Pacovsk%C3%A1</t>
+          <t>Květa_Pacovská</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Květa Pacovská, née le 28 juillet 1928 à Prague (Tchécoslovaquie) et morte le 6 février 2023[1], est une artiste plasticienne tchécoslovaque puis tchèque qui a consacré une partie importante de son travail au livre d'art destiné à la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Květa Pacovská, née le 28 juillet 1928 à Prague (Tchécoslovaquie) et morte le 6 février 2023, est une artiste plasticienne tchécoslovaque puis tchèque qui a consacré une partie importante de son travail au livre d'art destiné à la jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kv%C4%9Bta_Pacovsk%C3%A1</t>
+          <t>Květa_Pacovská</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kv%C4%9Bta_Pacovsk%C3%A1</t>
+          <t>Květa_Pacovská</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,17 +551,19 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Květa Pacovská a reçu de nombreux prix et distinctions.
-Elle est lauréate en 1983 de la Pomme d'Or de Bratislava[2] (BIB) pour ses illustrations de Pimpilim pampam (texte de Josef Hanzlík).
-En 1986, elle figure dans la « Honour List »[3] de l' IBBY, catégorie Illustration.
+Elle est lauréate en 1983 de la Pomme d'Or de Bratislava (BIB) pour ses illustrations de Pimpilim pampam (texte de Josef Hanzlík).
+En 1986, elle figure dans la « Honour List » de l' IBBY, catégorie Illustration.
 En 1992, elle reçoit le prix Hans-Christian-Andersen Illustration. Ce prix est considéré comme le « Nobel » du livre pour enfants.
-En 1993, son ouvrage Grün rot alle: ein farbenspielbuch obtient la "Mention" Prix critique en herbe de  la Foire du livre de jeunesse de Bologne[4] (Italie).
-En 1998, à cette même Foire du livre de jeunesse de Bologne, elle est lauréate du Special Award[5] pour son ouvrage Alphabet.
+En 1993, son ouvrage Grün rot alle: ein farbenspielbuch obtient la "Mention" Prix critique en herbe de  la Foire du livre de jeunesse de Bologne (Italie).
+En 1998, à cette même Foire du livre de jeunesse de Bologne, elle est lauréate du Special Award pour son ouvrage Alphabet.
 Illustrad'Or 2006(ca) (Illustrateur d’Or), ce prix bisannuel est remis à Květa Pacovská pour l'ensemble de son œuvre, par l’APIC, l’association des Illustrateurs de Catalogne, le 26 mars 2007 à Barcelone.
 Prix Vladimíra-Boudníka.
-De 2019 à 2023, elle est sélectionnée cinq années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[6].
+De 2019 à 2023, elle est sélectionnée cinq années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kv%C4%9Bta_Pacovsk%C3%A1</t>
+          <t>Květa_Pacovská</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Květa Pacovská », Centre national d'art et de culture Georges-Pompidou, Paris
 « Un livre pour toi », Médiathèque de la Cité des sciences et de l'industrie, Paris, mars 2007
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kv%C4%9Bta_Pacovsk%C3%A1</t>
+          <t>Květa_Pacovská</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Livres pour enfants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artiste a illustré de très nombreux titres, dont de grands classiques, mais aussi des créations personnelles, qu'elle considère comme de petits musées portables mis à la portée des enfants.
 L'essentiel de son œuvre est édité en France par les éditions du Seuil-Jeunesse, NordSud et les éditions du Panama, Les Grandes Personnes ainsi que minedition.
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kv%C4%9Bta_Pacovsk%C3%A1</t>
+          <t>Květa_Pacovská</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,9 +661,11 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Adaptations
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adaptations
 La Petite Fille aux allumettes (minedition)
 Cendrillon (minedition)'
 Le Petit Roi des fleurs (minedition)'
@@ -660,8 +682,43 @@
 Un livre pour toi
 À l'infini
 Abbaye Royale de Fontevraud, éd. CCO, 2010, 48 p., (collection "Les carnets de visite" dirigée par Xavier Kawa-Topor).
-Multimédia
-Deux de ses livres ont été adaptés sous la forme d'œuvre multimédia, avec l'ajout de sons et d'animations sons le contrôle de l'artiste. Il s'agit de :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Květa_Pacovská</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kv%C4%9Bta_Pacovsk%C3%A1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Multimédia</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Deux de ses livres ont été adaptés sous la forme d'œuvre multimédia, avec l'ajout de sons et d'animations sons le contrôle de l'artiste. Il s'agit de :
 Alphabet (CD-ROM), Murielle Lefèvre, Frédéric Durieu et Jean-Jacques Birgé, Syrinx, NHK, Paris 1999
 Le Théâtre de Minuit (CD-ROM), Murielle Lefèvre, Jean-Philippe Peugeot et Michiru Oshima, Syrinx, NHK, Paris 1999
 Le Petit Roi des fleurs a été adapté à la télévision par une chaine japonaise[réf. nécessaire] et commercialisé en DVD.</t>
